--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/TEXAS_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/TEXAS_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1838"/>
+  <dimension ref="A1:D1832"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C41">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C44">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C46">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C53">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C58">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C78">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C83">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C91">
@@ -1577,7 +1577,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C92">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C129">
@@ -2206,7 +2206,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C140">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C143">
@@ -2557,7 +2557,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C167">
@@ -2570,7 +2570,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C168">
@@ -2583,7 +2583,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C169">
@@ -2687,7 +2687,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C177">
@@ -3121,7 +3121,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C210">
@@ -3347,7 +3347,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C227">
@@ -3373,7 +3373,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3430,7 +3430,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C233">
@@ -3630,7 +3630,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C248">
@@ -3812,7 +3812,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C262">
@@ -3864,7 +3864,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C266">
@@ -3897,7 +3897,7 @@
         <v>95</v>
       </c>
       <c r="D268">
-        <v>0.0009201592359772575</v>
+        <v>0.0009201592359772576</v>
       </c>
     </row>
     <row r="269">
@@ -3955,7 +3955,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C273">
@@ -3968,7 +3968,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C274">
@@ -3981,7 +3981,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C275">
@@ -3994,7 +3994,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C276">
@@ -4124,12 +4124,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C286">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C289">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C290">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C297">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C304">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C309">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C316">
@@ -4623,7 +4623,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C324">
@@ -4636,7 +4636,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C325">
@@ -4831,7 +4831,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C340">
@@ -4987,7 +4987,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C352">
@@ -5000,7 +5000,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C353">
@@ -5013,7 +5013,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C354">
@@ -5039,7 +5039,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C356">
@@ -5065,7 +5065,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5182,7 +5182,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C367">
@@ -5364,7 +5364,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C381">
@@ -5442,7 +5442,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C387">
@@ -5455,7 +5455,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C388">
@@ -5468,7 +5468,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C389">
@@ -5481,7 +5481,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C390">
@@ -5624,7 +5624,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -5636,7 +5636,7 @@
         <v>99</v>
       </c>
       <c r="D401">
-        <v>0.0009589027827552473</v>
+        <v>0.0009589027827552472</v>
       </c>
     </row>
     <row r="402">
@@ -5668,7 +5668,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C404">
@@ -5681,7 +5681,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C405">
@@ -5785,7 +5785,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C413">
@@ -5837,7 +5837,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C417">
@@ -5941,7 +5941,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C425">
@@ -5993,7 +5993,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C429">
@@ -6019,7 +6019,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C431">
@@ -6045,7 +6045,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C433">
@@ -6071,7 +6071,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C435">
@@ -6097,7 +6097,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C437">
@@ -6162,7 +6162,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C442">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C448">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C451">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C452">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C456">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C458">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C459">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C463">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C464">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C465">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C470">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C471">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C475">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C476">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C482">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C483">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C485">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C486">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C488">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C491">
@@ -6978,7 +6978,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C504">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C506">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C508">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C510">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C514">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C515">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C527">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C534">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C535">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C541">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C547">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C550">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C553">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C560">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C562">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C564">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C565">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C566">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C569">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C574">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C575">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C579">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C582">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C584">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C592">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C594">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C597">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C598">
@@ -8275,7 +8275,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C603">
@@ -8288,7 +8288,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C604">
@@ -8340,7 +8340,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C608">
@@ -8366,7 +8366,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C610">
@@ -8392,7 +8392,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C612">
@@ -8470,7 +8470,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C618">
@@ -8561,7 +8561,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C625">
@@ -8574,7 +8574,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C626">
@@ -8665,7 +8665,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C633">
@@ -8743,7 +8743,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C639">
@@ -8756,7 +8756,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C640">
@@ -8769,7 +8769,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C641">
@@ -8821,7 +8821,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C645">
@@ -8899,7 +8899,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C651">
@@ -8912,7 +8912,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C652">
@@ -9016,7 +9016,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C660">
@@ -9081,7 +9081,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C665">
@@ -9094,7 +9094,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C666">
@@ -9107,7 +9107,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C667">
@@ -9133,7 +9133,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C669">
@@ -9159,7 +9159,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C671">
@@ -9172,7 +9172,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C672">
@@ -9185,7 +9185,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C673">
@@ -9198,7 +9198,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C674">
@@ -9237,7 +9237,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C677">
@@ -9250,7 +9250,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C678">
@@ -9289,7 +9289,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C681">
@@ -9341,7 +9341,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C685">
@@ -9354,7 +9354,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C686">
@@ -9393,7 +9393,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C689">
@@ -9406,7 +9406,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C690">
@@ -9549,7 +9549,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C701">
@@ -9562,7 +9562,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C702">
@@ -9575,7 +9575,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C703">
@@ -9588,7 +9588,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C704">
@@ -9653,7 +9653,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C709">
@@ -9666,7 +9666,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C710">
@@ -9705,7 +9705,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C713">
@@ -9718,7 +9718,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C714">
@@ -10035,7 +10035,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C738">
@@ -10061,7 +10061,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C740">
@@ -10919,7 +10919,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C806">
@@ -11121,7 +11121,7 @@
         <v>98</v>
       </c>
       <c r="D821">
-        <v>0.0009492168960607499</v>
+        <v>0.00094921689606075</v>
       </c>
     </row>
     <row r="822">
@@ -11262,7 +11262,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C832">
@@ -11353,7 +11353,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C839">
@@ -11405,7 +11405,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C843">
@@ -11483,7 +11483,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C849">
@@ -11496,7 +11496,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C850">
@@ -11587,7 +11587,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C857">
@@ -11644,7 +11644,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C861">
@@ -11657,7 +11657,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C862">
@@ -11709,7 +11709,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C866">
@@ -11787,7 +11787,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C872">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C890">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C908">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C915">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C917">
@@ -12468,7 +12468,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C924">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C931">
@@ -12629,7 +12629,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C936">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C938">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C941">
@@ -12707,7 +12707,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C942">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C943">
@@ -12733,7 +12733,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C944">
@@ -12746,7 +12746,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C945">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C946">
@@ -12772,7 +12772,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C947">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C948">
@@ -12798,7 +12798,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C949">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C955">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C957">
@@ -12915,7 +12915,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C958">
@@ -12941,7 +12941,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C960">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C961">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C962">
@@ -12980,7 +12980,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C963">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C964">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C973">
@@ -13227,7 +13227,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C982">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C986">
@@ -13422,7 +13422,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C997">
@@ -13513,7 +13513,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1004">
@@ -13526,7 +13526,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1005">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1015">
@@ -13708,7 +13708,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1019">
@@ -14111,7 +14111,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1050">
@@ -14228,7 +14228,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1059">
@@ -14332,7 +14332,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1067">
@@ -14462,7 +14462,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1077">
@@ -14982,7 +14982,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1117">
@@ -15203,7 +15203,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1134">
@@ -15229,7 +15229,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1136">
@@ -15242,7 +15242,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1137">
@@ -15268,7 +15268,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1139">
@@ -15281,7 +15281,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1140">
@@ -15294,7 +15294,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1141">
@@ -15320,7 +15320,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1143">
@@ -15359,7 +15359,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1146">
@@ -15372,7 +15372,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1147">
@@ -15385,7 +15385,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1148">
@@ -15398,7 +15398,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1149">
@@ -15411,7 +15411,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1150">
@@ -15437,7 +15437,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1152">
@@ -15450,7 +15450,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1153">
@@ -15463,7 +15463,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1154">
@@ -15489,7 +15489,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1156">
@@ -15754,7 +15754,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C1176">
@@ -15806,7 +15806,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1180">
@@ -15949,7 +15949,7 @@
     <row r="1191">
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1191">
@@ -16040,7 +16040,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1198">
@@ -16053,7 +16053,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1199">
@@ -16235,7 +16235,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1213">
@@ -16248,7 +16248,7 @@
     <row r="1214">
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1214">
@@ -16300,7 +16300,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1218">
@@ -16326,7 +16326,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C1220">
@@ -16378,7 +16378,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1224">
@@ -16482,7 +16482,7 @@
     <row r="1232">
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1232">
@@ -16612,7 +16612,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1242">
@@ -16846,7 +16846,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1260">
@@ -16859,7 +16859,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1261">
@@ -16950,7 +16950,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1268">
@@ -17054,7 +17054,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1276">
@@ -17067,7 +17067,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1277">
@@ -17080,7 +17080,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1278">
@@ -17158,7 +17158,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1284">
@@ -17184,7 +17184,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1286">
@@ -17197,7 +17197,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1287">
@@ -17210,7 +17210,7 @@
     <row r="1288">
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1288">
@@ -17275,7 +17275,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1293">
@@ -17431,7 +17431,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerero</t>
+          <t>Totoltepec De Guerero</t>
         </is>
       </c>
       <c r="C1305">
@@ -17457,7 +17457,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1307">
@@ -17652,7 +17652,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1322">
@@ -17722,7 +17722,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1327">
@@ -17748,7 +17748,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1329">
@@ -17826,7 +17826,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1335">
@@ -17839,14 +17839,14 @@
     <row r="1336">
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1336">
         <v>94</v>
       </c>
       <c r="D1336">
-        <v>0.0009104733492827601</v>
+        <v>0.00091047334928276</v>
       </c>
     </row>
     <row r="1337">
@@ -17878,7 +17878,7 @@
     <row r="1339">
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1339">
@@ -17917,7 +17917,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1342">
@@ -18122,7 +18122,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1357">
@@ -18135,7 +18135,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1358">
@@ -18200,7 +18200,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1363">
@@ -18226,7 +18226,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1365">
@@ -18369,7 +18369,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1376">
@@ -18447,7 +18447,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1382">
@@ -18525,7 +18525,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1388">
@@ -18551,7 +18551,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1390">
@@ -18655,7 +18655,7 @@
     <row r="1398">
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1398">
@@ -18707,7 +18707,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1402">
@@ -18720,7 +18720,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1403">
@@ -18733,7 +18733,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1404">
@@ -18746,7 +18746,7 @@
     <row r="1405">
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1405">
@@ -18759,7 +18759,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1406">
@@ -18772,7 +18772,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1407">
@@ -19315,7 +19315,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1448">
@@ -19554,7 +19554,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1466">
@@ -20144,7 +20144,7 @@
     <row r="1511">
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1511">
@@ -20253,7 +20253,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1519">
@@ -20279,7 +20279,7 @@
     <row r="1521">
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Amaxac de Guerero</t>
+          <t>Amaxac De Guerero</t>
         </is>
       </c>
       <c r="C1521">
@@ -20331,7 +20331,7 @@
     <row r="1525">
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1525">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1530">
@@ -20435,7 +20435,7 @@
     <row r="1533">
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1533">
@@ -20474,7 +20474,7 @@
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1536">
@@ -20500,7 +20500,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1538">
@@ -20552,7 +20552,7 @@
     <row r="1542">
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1542">
@@ -20591,7 +20591,7 @@
     <row r="1545">
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1545">
@@ -20817,7 +20817,7 @@
     <row r="1562">
       <c r="B1562" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1562">
@@ -20869,7 +20869,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1566">
@@ -20960,7 +20960,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1573">
@@ -20986,7 +20986,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1575">
@@ -21038,7 +21038,7 @@
     <row r="1579">
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1579">
@@ -21064,7 +21064,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1581">
@@ -21168,7 +21168,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1589">
@@ -21337,20 +21337,20 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1602">
         <v>94</v>
       </c>
       <c r="D1602">
-        <v>0.0009104733492827601</v>
+        <v>0.00091047334928276</v>
       </c>
     </row>
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1603">
@@ -21571,7 +21571,7 @@
     <row r="1620">
       <c r="B1620" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1620">
@@ -21584,7 +21584,7 @@
     <row r="1621">
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1621">
@@ -21636,7 +21636,7 @@
     <row r="1625">
       <c r="B1625" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1625">
@@ -21649,7 +21649,7 @@
     <row r="1626">
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1626">
@@ -21662,7 +21662,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1627">
@@ -21805,7 +21805,7 @@
     <row r="1638">
       <c r="B1638" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1638">
@@ -21831,7 +21831,7 @@
     <row r="1640">
       <c r="B1640" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1640">
@@ -21857,7 +21857,7 @@
     <row r="1642">
       <c r="B1642" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1642">
@@ -21870,7 +21870,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1643">
@@ -21935,7 +21935,7 @@
     <row r="1648">
       <c r="B1648" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1648">
@@ -21974,7 +21974,7 @@
     <row r="1651">
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1651">
@@ -22026,7 +22026,7 @@
     <row r="1655">
       <c r="B1655" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1655">
@@ -22052,7 +22052,7 @@
     <row r="1657">
       <c r="B1657" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1657">
@@ -22182,7 +22182,7 @@
     <row r="1667">
       <c r="B1667" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1667">
@@ -22234,7 +22234,7 @@
     <row r="1671">
       <c r="B1671" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1671">
@@ -22247,7 +22247,7 @@
     <row r="1672">
       <c r="B1672" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1672">
@@ -22299,7 +22299,7 @@
     <row r="1676">
       <c r="B1676" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1676">
@@ -22429,7 +22429,7 @@
     <row r="1686">
       <c r="B1686" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1686">
@@ -22481,7 +22481,7 @@
     <row r="1690">
       <c r="B1690" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1690">
@@ -22585,7 +22585,7 @@
     <row r="1698">
       <c r="B1698" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1698">
@@ -22884,7 +22884,7 @@
     <row r="1721">
       <c r="B1721" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1721">
@@ -23066,7 +23066,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1735">
@@ -23112,7 +23112,7 @@
         <v>99</v>
       </c>
       <c r="D1738">
-        <v>0.0009589027827552473</v>
+        <v>0.0009589027827552472</v>
       </c>
     </row>
     <row r="1739">
@@ -23196,7 +23196,7 @@
     <row r="1745">
       <c r="B1745" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1745">
@@ -23209,7 +23209,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1746">
@@ -23661,7 +23661,7 @@
     <row r="1780">
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1780">
@@ -23687,7 +23687,7 @@
     <row r="1782">
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1782">
@@ -23843,7 +23843,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1794">
@@ -23934,7 +23934,7 @@
     <row r="1801">
       <c r="B1801" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1801">
@@ -23999,7 +23999,7 @@
     <row r="1806">
       <c r="B1806" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1806">
@@ -24012,7 +24012,7 @@
     <row r="1807">
       <c r="B1807" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1807">
@@ -24025,7 +24025,7 @@
     <row r="1808">
       <c r="B1808" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1808">
@@ -24168,7 +24168,7 @@
     <row r="1819">
       <c r="B1819" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1819">
@@ -24181,7 +24181,7 @@
     <row r="1820">
       <c r="B1820" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1820">
@@ -24207,7 +24207,7 @@
     <row r="1822">
       <c r="B1822" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1822">
@@ -24246,7 +24246,7 @@
     <row r="1825">
       <c r="B1825" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1825">
@@ -24345,41 +24345,6 @@
       </c>
       <c r="D1832">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1834">
-      <c r="B1834" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1835">
-      <c r="B1835" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1836">
-      <c r="B1836" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1837">
-      <c r="B1837" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1838">
-      <c r="B1838" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
